--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,151 +55,151 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>care</t>
@@ -772,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>431</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1079,32 +1079,8 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1102941176470588</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>219</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
-      </c>
-      <c r="F8">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>121</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0.9777777777777777</v>
@@ -1130,7 +1106,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>0.9655172413793104</v>
@@ -1156,7 +1132,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1182,7 +1158,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1208,7 +1184,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.9166666666666666</v>
@@ -1234,7 +1210,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.8936170212765957</v>
@@ -1260,7 +1236,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>0.8899082568807339</v>
@@ -1286,7 +1262,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>0.8888888888888888</v>
@@ -1312,7 +1288,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0.8740157480314961</v>
@@ -1338,7 +1314,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1364,7 +1340,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1390,7 +1366,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1416,7 +1392,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.8636363636363636</v>
@@ -1442,7 +1418,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
         <v>0.8636363636363636</v>
@@ -1468,7 +1444,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
         <v>0.8529411764705882</v>
@@ -1494,7 +1470,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <v>0.8518518518518519</v>
@@ -1520,7 +1496,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
         <v>0.8461538461538461</v>
@@ -1546,7 +1522,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
         <v>0.825</v>
@@ -1572,7 +1548,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
         <v>0.8245614035087719</v>
@@ -1598,7 +1574,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>0.8141025641025641</v>
@@ -1624,7 +1600,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
         <v>0.8</v>
@@ -1650,7 +1626,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
@@ -1676,7 +1652,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>0.7857142857142857</v>
@@ -1702,7 +1678,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>0.7785714285714286</v>
@@ -1728,7 +1704,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>0.7777777777777778</v>
@@ -1754,16 +1730,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.762114537444934</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L33">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M33">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N33">
         <v>0.9399999999999999</v>
@@ -1775,99 +1751,99 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.7555555555555555</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L34">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.7450980392156863</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.7368421052631579</v>
+        <v>0.73</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.73</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>0.92</v>
@@ -1879,38 +1855,38 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N38">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>0.7222222222222222</v>
@@ -1936,7 +1912,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>0.7111111111111111</v>
@@ -1962,7 +1938,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
         <v>0.6956521739130435</v>
@@ -1988,7 +1964,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>0.6829268292682927</v>
@@ -2014,7 +1990,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>0.6818181818181818</v>
@@ -2040,7 +2016,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44">
         <v>0.6571428571428571</v>
@@ -2066,7 +2042,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45">
         <v>0.6473684210526316</v>
@@ -2092,7 +2068,7 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46">
         <v>0.6468531468531469</v>
@@ -2118,7 +2094,7 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47">
         <v>0.640625</v>
@@ -2144,7 +2120,7 @@
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48">
         <v>0.6363636363636364</v>
@@ -2170,28 +2146,28 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="K49">
-        <v>0.6276923076923077</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L49">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2199,25 +2175,25 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="10:17">
